--- a/public/Excel_example/other/cooperation_proj.xlsx
+++ b/public/Excel_example/other/cooperation_proj.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,64 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>單位名稱</t>
+  </si>
+  <si>
+    <t>系所部門</t>
+  </si>
+  <si>
+    <t>主持人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作機構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計畫名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計畫內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,15 +94,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +187,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +395,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/Excel_example/other/cooperation_proj.xlsx
+++ b/public/Excel_example/other/cooperation_proj.xlsx
@@ -14,47 +14,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>單位名稱</t>
-  </si>
-  <si>
-    <t>系所部門</t>
-  </si>
-  <si>
-    <t>主持人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所屬一級</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>單位</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所屬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系所部門</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主辦人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合作機構</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>計畫名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>計畫內容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>開始時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>結束時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,6 +110,31 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -90,8 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -396,41 +471,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/Excel_example/other/cooperation_proj.xlsx
+++ b/public/Excel_example/other/cooperation_proj.xlsx
@@ -474,13 +474,13 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/public/Excel_example/other/cooperation_proj.xlsx
+++ b/public/Excel_example/other/cooperation_proj.xlsx
@@ -16,89 +16,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>所屬一級</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>單位</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>所屬</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>系所部門</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>主辦人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>合作機構</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>計畫名稱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>開始時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>結束時間</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所屬一級單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所屬系所部門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,27 +68,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -161,12 +112,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -471,43 +420,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I4" sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/Excel_example/other/cooperation_proj.xlsx
+++ b/public/Excel_example/other/cooperation_proj.xlsx
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I4" sqref="A1:I4"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -432,7 +432,7 @@
     <col min="2" max="2" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -457,9 +457,8 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -468,9 +467,8 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -479,9 +477,8 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -490,7 +487,6 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/Excel_example/other/cooperation_proj.xlsx
+++ b/public/Excel_example/other/cooperation_proj.xlsx
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,13 +82,6 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,12 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -420,19 +412,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -457,36 +449,6 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/Excel_example/other/cooperation_proj.xlsx
+++ b/public/Excel_example/other/cooperation_proj.xlsx
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
